--- a/FlowModel/bin/Debug/Sources/templateOfExcelBook.xlsx
+++ b/FlowModel/bin/Debug/Sources/templateOfExcelBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Михаил\source\repos\FlowModel\FlowModel\bin\Debug\Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\FlowModel\FlowModel\bin\Debug\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38E01D2-5483-4666-9822-24DF5CF85316}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14730FB1-56E7-437F-AC23-4756942CB9A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="3120" windowWidth="20910" windowHeight="11835" xr2:uid="{E7B4DEAD-9BFC-42B1-8E68-BBAF759CF69C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E7B4DEAD-9BFC-42B1-8E68-BBAF759CF69C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,13 +436,28 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -481,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -509,6 +524,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,13 +844,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3315234A-7AD6-442D-81BE-232CB3E4712B}">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
@@ -1127,14 +1145,14 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="10" t="s">
         <v>60</v>
       </c>
     </row>
